--- a/Netbeans/ANA-ADDIX/output/data_storge/newsmynavi.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storge/newsmynavi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5815" uniqueCount="5815">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6134" uniqueCount="6134">
   <x:si>
     <x:t>Url</x:t>
   </x:si>
@@ -17476,6 +17476,963 @@
   </x:si>
   <x:si>
     <x:t>https://news.mynavi.jp/article/20190814-877355/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929185/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928949/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929007/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928973/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928951/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928920/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928769/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191126-920577/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191126-922523/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191126-915954/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928674/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/workstyle-17/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-sophossmartspeaker/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928418/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928360/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928272/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191125-925810/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/smartkaden-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928074/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-windows10report/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928842/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928783/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928628/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191125-925810/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/smartkaden-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927453/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927325/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-926975/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-926978/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-926955/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-926926/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/mobiletopics-13/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926781/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/whatis5g-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191121-926112/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926505/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926479/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/itsearch/article/solution/4721?hl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191120-926264/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191120-926221/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180915-apple/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180914-693142/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180830-872640/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180719-666288/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180608-wtp2018b/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180529-638255/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180521-634059/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180511-629470/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180402-exos/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180329-ana-avatar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170927-a101/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170818-a289/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170731-s8/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170725-a348/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170623-a212/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170508-a259/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170210-a400/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/ccmanga-93/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/tokyo_venture-7/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-927857/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926622/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191120-925956/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191119-925294/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191118-919514/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191017-910934/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191013-909127/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191011-908662/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191011-908341/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190924-sony/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190922-897734/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20190918-894084/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190918-895368/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/iotyougo-22/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190829-885373/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190829-885206/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20190820-878073/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190806-872777/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/svalley-804/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929185/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929131/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928791/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928652/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928375/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928427/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928394/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928293/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/makeprogram-32/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191125-925810/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928063/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928074/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-927999/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-927857/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927752/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927671/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927648/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927652/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927418/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928412/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-trainyourbrain/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191111-921972/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191106-922249/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191105-919439/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191010-907624/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191002-903343/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/iphone_kihon-365/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190919-896656/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190918-logicool/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190916-894809/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190911-lotus-evija/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190908-890909/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190822-881661/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190822-881632/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190820-880164/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190820-879158/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190810-875634/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190729-867910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/makeprogram-32/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926366/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/office-18/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/teamviewer-1-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191109-922230/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/whatis5g-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191106-920200/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191101-security_frontline_v28/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191030-916489/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191028-915432/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191027-915445/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191027-915094/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191027-915095/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191025-913988/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191024-914007/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191023-airmega/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191023-913278/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/military_it-319/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191018-911995/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/azure_case_td-93/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191015-909694/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191007-903671/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191003-903710/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190510-821387/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190214-771491/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190214-771457/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190213-770918/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20180723-hs2018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180601-639804/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180412-615638/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180409-607382/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180327-607092/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/cisco_spark-6/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170621-workstyle_oracle/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170601-a103/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/cisco_spark-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20170124-a254/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20161117-a133/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/whatis5g-3/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191023-913278/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190829-885340/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190802-870572/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190716-860471/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190626-849142/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/mobiletopics-1/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/compass-167/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190304-5G/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190301-879650/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190228-hololens2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/mobile_business-32/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190104-750954/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20181228-748058/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20181204-735575/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20181204-dynabook/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20181129-732449/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20181024-709937/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20181018-sharp/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929186/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929100/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928845/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928876/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928783/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928718/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928365/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928354/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928293/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928127/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928082/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928041/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928003/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928001/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-927933/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927720/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927643/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927653/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927621/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927623/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929157/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929047/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928984/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928840/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928906/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928811/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928719/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928590/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/h-kataoka-39/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191125-ideco/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928414/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928364/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928326/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928149/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928125/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928111/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-928099/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927794/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927776/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927777/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928744/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928563/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928629/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928712/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-927959/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927363/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926916/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926761/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/whatis5g-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191115-923985/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191115-923983/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191111-921794/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191108-920845/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191106-919868/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191106-919871/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191106-919911/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191106-919907/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191104-919294/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191102-918555/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191029-915875/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928746/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-928738/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928140/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191125-925810/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927606/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927205/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927435/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927320/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927177/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-922505/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191119-925613/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191119-925419/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191117-924910/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191116-924622/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191116-huawei/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191115-924148/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191115-923933/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191114-huawei/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191114-923630/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191113-922842/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-927857/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191122-927320/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926736/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191120-926264/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191120-925863/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191117-922527/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191111-922040/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191107-919988/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191031-916667/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191025-914577/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191013-908884/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191008-906242/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191004-903842/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190930-902140/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190927-900500/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190926-899952/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/cms_choice-2/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190924-sony/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190924-889228/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191126-929104/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/20191126-920577/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/reiwa-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928650/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-hazawayokohamakokudai/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191125-928361/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-ef200shiki800/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191124-tobuurbanparkline/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-923079/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191123-927621/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/railwaynews-200/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926919/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926766/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926653/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/whatis5g-4/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926632/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926614/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926613/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926455/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191121-926426/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191119-925855/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20191015-909750/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180914-693142/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180702-658313/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180702-658307/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180329-ana-avatar/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20180314-600245/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/svalley-813/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190922-884755/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190910-887505/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190828-884898/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190808-873966/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190627-850018/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190625-848569/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/svalley-801/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190524-829673/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190329-oyo_life/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190325-794839/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190312-787451/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190311-786460/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190308-784971/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190301-779284/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/kikaku/iotyougo-15/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190204-767051/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190125-761151/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://news.mynavi.jp/article/20190107-752331/</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -17848,7 +18805,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A887"/>
+  <x:dimension ref="A1:A907"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
       <x:selection activeCell="A2" sqref="A2 A2:A2"/>
@@ -22292,6 +23249,106 @@
     <x:row r="887">
       <x:c r="A887" t="s">
         <x:v>5743</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="888">
+      <x:c r="A888" t="s">
+        <x:v>5815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="889">
+      <x:c r="A889" t="s">
+        <x:v>5816</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="890">
+      <x:c r="A890" t="s">
+        <x:v>5817</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="891">
+      <x:c r="A891" t="s">
+        <x:v>5818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="892">
+      <x:c r="A892" t="s">
+        <x:v>5819</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="893">
+      <x:c r="A893" t="s">
+        <x:v>5820</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="894">
+      <x:c r="A894" t="s">
+        <x:v>5821</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="895">
+      <x:c r="A895" t="s">
+        <x:v>5822</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="896">
+      <x:c r="A896" t="s">
+        <x:v>5823</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="897">
+      <x:c r="A897" t="s">
+        <x:v>5824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="898">
+      <x:c r="A898" t="s">
+        <x:v>5825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="899">
+      <x:c r="A899" t="s">
+        <x:v>5826</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="900">
+      <x:c r="A900" t="s">
+        <x:v>5827</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="901">
+      <x:c r="A901" t="s">
+        <x:v>5828</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="902">
+      <x:c r="A902" t="s">
+        <x:v>5829</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="903">
+      <x:c r="A903" t="s">
+        <x:v>5830</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="904">
+      <x:c r="A904" t="s">
+        <x:v>5831</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="905">
+      <x:c r="A905" t="s">
+        <x:v>5832</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="906">
+      <x:c r="A906" t="s">
+        <x:v>5833</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="907">
+      <x:c r="A907" t="s">
+        <x:v>5834</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -22308,7 +23365,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A882"/>
+  <x:dimension ref="A1:A902"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -26725,6 +27782,106 @@
     <x:row r="882">
       <x:c r="A882" t="s">
         <x:v>5782</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="883">
+      <x:c r="A883" t="s">
+        <x:v>5989</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="884">
+      <x:c r="A884" t="s">
+        <x:v>5990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="885">
+      <x:c r="A885" t="s">
+        <x:v>5991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="886">
+      <x:c r="A886" t="s">
+        <x:v>5992</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="887">
+      <x:c r="A887" t="s">
+        <x:v>5993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="888">
+      <x:c r="A888" t="s">
+        <x:v>5994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="889">
+      <x:c r="A889" t="s">
+        <x:v>5995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="890">
+      <x:c r="A890" t="s">
+        <x:v>5996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="891">
+      <x:c r="A891" t="s">
+        <x:v>5997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="892">
+      <x:c r="A892" t="s">
+        <x:v>5998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="893">
+      <x:c r="A893" t="s">
+        <x:v>5999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="894">
+      <x:c r="A894" t="s">
+        <x:v>6000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="895">
+      <x:c r="A895" t="s">
+        <x:v>6001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="896">
+      <x:c r="A896" t="s">
+        <x:v>6002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="897">
+      <x:c r="A897" t="s">
+        <x:v>6003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="898">
+      <x:c r="A898" t="s">
+        <x:v>6004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="899">
+      <x:c r="A899" t="s">
+        <x:v>6005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="900">
+      <x:c r="A900" t="s">
+        <x:v>6006</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="901">
+      <x:c r="A901" t="s">
+        <x:v>6007</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="902">
+      <x:c r="A902" t="s">
+        <x:v>6008</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -26741,7 +27898,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A883"/>
+  <x:dimension ref="A1:A903"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -31163,6 +32320,106 @@
     <x:row r="883">
       <x:c r="A883" t="s">
         <x:v>5787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="884">
+      <x:c r="A884" t="s">
+        <x:v>6009</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="885">
+      <x:c r="A885" t="s">
+        <x:v>6010</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="886">
+      <x:c r="A886" t="s">
+        <x:v>6011</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="887">
+      <x:c r="A887" t="s">
+        <x:v>6012</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="888">
+      <x:c r="A888" t="s">
+        <x:v>6013</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="889">
+      <x:c r="A889" t="s">
+        <x:v>6014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="890">
+      <x:c r="A890" t="s">
+        <x:v>6015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="891">
+      <x:c r="A891" t="s">
+        <x:v>6016</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="892">
+      <x:c r="A892" t="s">
+        <x:v>6017</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="893">
+      <x:c r="A893" t="s">
+        <x:v>6018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="894">
+      <x:c r="A894" t="s">
+        <x:v>6019</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="895">
+      <x:c r="A895" t="s">
+        <x:v>6020</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="896">
+      <x:c r="A896" t="s">
+        <x:v>6021</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="897">
+      <x:c r="A897" t="s">
+        <x:v>6022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="898">
+      <x:c r="A898" t="s">
+        <x:v>6023</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="899">
+      <x:c r="A899" t="s">
+        <x:v>6024</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="900">
+      <x:c r="A900" t="s">
+        <x:v>6025</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="901">
+      <x:c r="A901" t="s">
+        <x:v>6026</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="902">
+      <x:c r="A902" t="s">
+        <x:v>6027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="903">
+      <x:c r="A903" t="s">
+        <x:v>6028</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -31179,7 +32436,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A339"/>
+  <x:dimension ref="A1:A359"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -32881,6 +34138,106 @@
     <x:row r="339">
       <x:c r="A339" t="s">
         <x:v>5792</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340">
+      <x:c r="A340" t="s">
+        <x:v>6029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341">
+      <x:c r="A341" t="s">
+        <x:v>6030</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342">
+      <x:c r="A342" t="s">
+        <x:v>6031</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343">
+      <x:c r="A343" t="s">
+        <x:v>6032</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344">
+      <x:c r="A344" t="s">
+        <x:v>6033</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345">
+      <x:c r="A345" t="s">
+        <x:v>6034</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346">
+      <x:c r="A346" t="s">
+        <x:v>6035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347">
+      <x:c r="A347" t="s">
+        <x:v>6036</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348">
+      <x:c r="A348" t="s">
+        <x:v>6037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349">
+      <x:c r="A349" t="s">
+        <x:v>6038</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350">
+      <x:c r="A350" t="s">
+        <x:v>6039</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351">
+      <x:c r="A351" t="s">
+        <x:v>6040</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352">
+      <x:c r="A352" t="s">
+        <x:v>6041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="353">
+      <x:c r="A353" t="s">
+        <x:v>6042</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="354">
+      <x:c r="A354" t="s">
+        <x:v>6043</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="355">
+      <x:c r="A355" t="s">
+        <x:v>6044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="356">
+      <x:c r="A356" t="s">
+        <x:v>6045</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="357">
+      <x:c r="A357" t="s">
+        <x:v>6046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358">
+      <x:c r="A358" t="s">
+        <x:v>6047</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359">
+      <x:c r="A359" t="s">
+        <x:v>6048</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -32897,7 +34254,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A489"/>
+  <x:dimension ref="A1:A509"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="A2" sqref="A2 A2:A2"/>
@@ -35351,6 +36708,106 @@
     <x:row r="489">
       <x:c r="A489" t="s">
         <x:v>5797</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="490">
+      <x:c r="A490" t="s">
+        <x:v>6049</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="491">
+      <x:c r="A491" t="s">
+        <x:v>6050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="492">
+      <x:c r="A492" t="s">
+        <x:v>6051</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493">
+      <x:c r="A493" t="s">
+        <x:v>6052</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494">
+      <x:c r="A494" t="s">
+        <x:v>6053</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="495">
+      <x:c r="A495" t="s">
+        <x:v>6054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="496">
+      <x:c r="A496" t="s">
+        <x:v>6055</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="497">
+      <x:c r="A497" t="s">
+        <x:v>6056</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="498">
+      <x:c r="A498" t="s">
+        <x:v>6057</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499">
+      <x:c r="A499" t="s">
+        <x:v>6058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500">
+      <x:c r="A500" t="s">
+        <x:v>6059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501">
+      <x:c r="A501" t="s">
+        <x:v>6060</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502">
+      <x:c r="A502" t="s">
+        <x:v>6061</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503">
+      <x:c r="A503" t="s">
+        <x:v>6062</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504">
+      <x:c r="A504" t="s">
+        <x:v>6063</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505">
+      <x:c r="A505" t="s">
+        <x:v>6064</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506">
+      <x:c r="A506" t="s">
+        <x:v>6065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507">
+      <x:c r="A507" t="s">
+        <x:v>6066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508">
+      <x:c r="A508" t="s">
+        <x:v>6067</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509">
+      <x:c r="A509" t="s">
+        <x:v>6068</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -35367,7 +36824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A147"/>
+  <x:dimension ref="A1:A166"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -36109,6 +37566,101 @@
     <x:row r="147">
       <x:c r="A147" t="s">
         <x:v>5802</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" t="s">
+        <x:v>6069</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" t="s">
+        <x:v>6070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" t="s">
+        <x:v>6071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" t="s">
+        <x:v>6072</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" t="s">
+        <x:v>6073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" t="s">
+        <x:v>6074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" t="s">
+        <x:v>6075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" t="s">
+        <x:v>6076</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156">
+      <x:c r="A156" t="s">
+        <x:v>6077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157">
+      <x:c r="A157" t="s">
+        <x:v>6078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158">
+      <x:c r="A158" t="s">
+        <x:v>6079</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159">
+      <x:c r="A159" t="s">
+        <x:v>6080</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160">
+      <x:c r="A160" t="s">
+        <x:v>6081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161">
+      <x:c r="A161" t="s">
+        <x:v>6082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" t="s">
+        <x:v>6083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163">
+      <x:c r="A163" t="s">
+        <x:v>6084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" t="s">
+        <x:v>6085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" t="s">
+        <x:v>6086</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" t="s">
+        <x:v>6087</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -36125,7 +37677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A743"/>
+  <x:dimension ref="A1:A763"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -39847,6 +41399,106 @@
     <x:row r="743">
       <x:c r="A743" t="s">
         <x:v>5807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="744">
+      <x:c r="A744" t="s">
+        <x:v>6088</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="745">
+      <x:c r="A745" t="s">
+        <x:v>6089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="746">
+      <x:c r="A746" t="s">
+        <x:v>6090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="747">
+      <x:c r="A747" t="s">
+        <x:v>6091</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="748">
+      <x:c r="A748" t="s">
+        <x:v>6092</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="749">
+      <x:c r="A749" t="s">
+        <x:v>6093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="750">
+      <x:c r="A750" t="s">
+        <x:v>6094</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="751">
+      <x:c r="A751" t="s">
+        <x:v>6095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="752">
+      <x:c r="A752" t="s">
+        <x:v>6096</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="753">
+      <x:c r="A753" t="s">
+        <x:v>6097</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="754">
+      <x:c r="A754" t="s">
+        <x:v>6098</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="755">
+      <x:c r="A755" t="s">
+        <x:v>6099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="756">
+      <x:c r="A756" t="s">
+        <x:v>6100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="757">
+      <x:c r="A757" t="s">
+        <x:v>6101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="758">
+      <x:c r="A758" t="s">
+        <x:v>6102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="759">
+      <x:c r="A759" t="s">
+        <x:v>6103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="760">
+      <x:c r="A760" t="s">
+        <x:v>6104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="761">
+      <x:c r="A761" t="s">
+        <x:v>6105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="762">
+      <x:c r="A762" t="s">
+        <x:v>6106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="763">
+      <x:c r="A763" t="s">
+        <x:v>6107</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -39863,7 +41515,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A14"/>
+  <x:dimension ref="A1:A21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -39940,6 +41592,41 @@
     <x:row r="14">
       <x:c r="A14" t="s">
         <x:v>5809</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>6108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>6109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>6110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>6111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>6112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>6113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>6114</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -39956,7 +41643,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A85"/>
+  <x:dimension ref="A1:A104"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -40388,6 +42075,101 @@
     <x:row r="85">
       <x:c r="A85" t="s">
         <x:v>5814</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>6115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>6116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>6117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>6118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>6119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>6120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>6121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>6122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>6123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>6124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>6125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>6126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>6127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>6128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>6129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>6130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>6131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>6132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>6133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -40437,7 +42219,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A827"/>
+  <x:dimension ref="A1:A847"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -44579,6 +46361,106 @@
     <x:row r="827">
       <x:c r="A827" t="s">
         <x:v>5748</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="828">
+      <x:c r="A828" t="s">
+        <x:v>5835</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="829">
+      <x:c r="A829" t="s">
+        <x:v>5836</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="830">
+      <x:c r="A830" t="s">
+        <x:v>5837</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="831">
+      <x:c r="A831" t="s">
+        <x:v>5838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="832">
+      <x:c r="A832" t="s">
+        <x:v>5839</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="833">
+      <x:c r="A833" t="s">
+        <x:v>5840</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="834">
+      <x:c r="A834" t="s">
+        <x:v>5841</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="835">
+      <x:c r="A835" t="s">
+        <x:v>5842</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="836">
+      <x:c r="A836" t="s">
+        <x:v>5843</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="837">
+      <x:c r="A837" t="s">
+        <x:v>5844</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="838">
+      <x:c r="A838" t="s">
+        <x:v>5845</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="839">
+      <x:c r="A839" t="s">
+        <x:v>5846</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="840">
+      <x:c r="A840" t="s">
+        <x:v>5847</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="841">
+      <x:c r="A841" t="s">
+        <x:v>5848</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="842">
+      <x:c r="A842" t="s">
+        <x:v>5849</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="843">
+      <x:c r="A843" t="s">
+        <x:v>5850</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="844">
+      <x:c r="A844" t="s">
+        <x:v>5851</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="845">
+      <x:c r="A845" t="s">
+        <x:v>5852</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="846">
+      <x:c r="A846" t="s">
+        <x:v>5853</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="847">
+      <x:c r="A847" t="s">
+        <x:v>5854</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -44595,7 +46477,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A67"/>
+  <x:dimension ref="A1:A86"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -44937,6 +46819,101 @@
     <x:row r="67">
       <x:c r="A67" t="s">
         <x:v>5749</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>5855</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>5856</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>5857</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>5858</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>5859</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>5860</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>5861</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>5862</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>5863</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>5864</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>5865</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>5866</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>5867</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>5868</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>5869</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>5870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>5871</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>5872</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>5873</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -44953,7 +46930,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A123"/>
+  <x:dimension ref="A1:A142"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -45575,6 +47552,101 @@
     <x:row r="123">
       <x:c r="A123" t="s">
         <x:v>5754</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" t="s">
+        <x:v>5874</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>5875</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>5876</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>5877</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>5878</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>5879</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>5880</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>5881</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>5882</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>5883</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>5884</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>5885</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>5886</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>5887</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>5888</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>5889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>5890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>5891</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>5892</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -45591,7 +47663,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A717"/>
+  <x:dimension ref="A1:A737"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -49183,6 +51255,106 @@
     <x:row r="717">
       <x:c r="A717" t="s">
         <x:v>5759</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="718">
+      <x:c r="A718" t="s">
+        <x:v>5893</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="719">
+      <x:c r="A719" t="s">
+        <x:v>5894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="720">
+      <x:c r="A720" t="s">
+        <x:v>5895</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="721">
+      <x:c r="A721" t="s">
+        <x:v>5896</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="722">
+      <x:c r="A722" t="s">
+        <x:v>5897</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="723">
+      <x:c r="A723" t="s">
+        <x:v>5898</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="724">
+      <x:c r="A724" t="s">
+        <x:v>5899</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="725">
+      <x:c r="A725" t="s">
+        <x:v>5900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="726">
+      <x:c r="A726" t="s">
+        <x:v>5901</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="727">
+      <x:c r="A727" t="s">
+        <x:v>5902</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="728">
+      <x:c r="A728" t="s">
+        <x:v>5903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="729">
+      <x:c r="A729" t="s">
+        <x:v>5904</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="730">
+      <x:c r="A730" t="s">
+        <x:v>5905</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="731">
+      <x:c r="A731" t="s">
+        <x:v>5906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="732">
+      <x:c r="A732" t="s">
+        <x:v>5907</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="733">
+      <x:c r="A733" t="s">
+        <x:v>5908</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="734">
+      <x:c r="A734" t="s">
+        <x:v>5909</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="735">
+      <x:c r="A735" t="s">
+        <x:v>5910</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="736">
+      <x:c r="A736" t="s">
+        <x:v>5911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="737">
+      <x:c r="A737" t="s">
+        <x:v>5912</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -49199,7 +51371,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A94"/>
+  <x:dimension ref="A1:A113"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -49676,6 +51848,101 @@
     <x:row r="94">
       <x:c r="A94" t="s">
         <x:v>5764</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>5913</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>5914</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>5915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>5916</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>5917</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>5918</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>5919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>5920</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>5921</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>5922</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>5923</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>5924</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>5925</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>5926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>5927</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>5928</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>5929</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" t="s">
+        <x:v>5930</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" t="s">
+        <x:v>5931</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -49692,7 +51959,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A163"/>
+  <x:dimension ref="A1:A182"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -50514,6 +52781,101 @@
     <x:row r="163">
       <x:c r="A163" t="s">
         <x:v>5769</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" t="s">
+        <x:v>5932</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" t="s">
+        <x:v>5933</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" t="s">
+        <x:v>5934</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167">
+      <x:c r="A167" t="s">
+        <x:v>5935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168">
+      <x:c r="A168" t="s">
+        <x:v>5936</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169">
+      <x:c r="A169" t="s">
+        <x:v>5937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170">
+      <x:c r="A170" t="s">
+        <x:v>5938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171">
+      <x:c r="A171" t="s">
+        <x:v>5939</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172">
+      <x:c r="A172" t="s">
+        <x:v>5940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173">
+      <x:c r="A173" t="s">
+        <x:v>5941</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174">
+      <x:c r="A174" t="s">
+        <x:v>5942</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175">
+      <x:c r="A175" t="s">
+        <x:v>5943</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176">
+      <x:c r="A176" t="s">
+        <x:v>5944</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177">
+      <x:c r="A177" t="s">
+        <x:v>5945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178">
+      <x:c r="A178" t="s">
+        <x:v>5946</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179">
+      <x:c r="A179" t="s">
+        <x:v>5947</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180">
+      <x:c r="A180" t="s">
+        <x:v>5948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181">
+      <x:c r="A181" t="s">
+        <x:v>5949</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182">
+      <x:c r="A182" t="s">
+        <x:v>5950</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -50530,7 +52892,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A72"/>
+  <x:dimension ref="A1:A91"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -50897,6 +53259,101 @@
     <x:row r="72">
       <x:c r="A72" t="s">
         <x:v>5773</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>5951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>5952</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>5953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>5954</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>5955</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>5956</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>5957</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>5958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>5959</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>5960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>5961</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>5962</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>5963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>5964</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>5965</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>5966</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>5967</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>5968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>5969</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -50913,7 +53370,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A80"/>
+  <x:dimension ref="A1:A99"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -51322,6 +53779,101 @@
         <x:v>5777</x:v>
       </x:c>
     </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>5970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>5971</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>5972</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>5973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>5974</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>5975</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>5976</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>5977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>5978</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>5979</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>5980</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>5981</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>5982</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>5983</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>5984</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>5985</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>5986</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>5987</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>5988</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
